--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_005.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_005.xlsx
@@ -411,7 +411,7 @@
       <patternFill patternType="darkGray"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -419,23 +419,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F86"/>
+  <dimension ref="A1:G86"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -443,10 +444,10 @@
   <cols>
     <col min="1" max="1" width="20.3984375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="60.7265625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.56640625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="45.0625" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="22.6875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="27.32421875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="45.05859375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="22.68359375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2172,273 +2173,4 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100335471EDD44E874DAB7180C0493F4ECE" ma:contentTypeVersion="15" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="85959bbc5d8178fb694bc2caf2439f0b">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1632c0f2-5623-49d0-b15e-384a6acdbfc6" xmlns:ns3="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f816d1a8925a644684fbd742cefb2ae2" ns2:_="" ns3:_="">
-    <xsd:import namespace="1632c0f2-5623-49d0-b15e-384a6acdbfc6"/>
-    <xsd:import namespace="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1632c0f2-5623-49d0-b15e-384a6acdbfc6" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="11" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="12" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="13" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="14" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="20" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Tag immagine" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="febfd348-e945-4c65-a9c0-c21aadb6feb0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="22" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Condiviso con" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Condiviso con dettagli" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="21" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{63e8363e-42d2-43ab-ac90-61e1d0a52236}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo di contenuto"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titolo"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1632c0f2-5623-49d0-b15e-384a6acdbfc6">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A6A5999-2267-4C99-B4D9-BC486385629D}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0283C15F-E9C1-4ABA-A6F1-AFC6BB9BE0A3}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E9C3D429-4A11-4D65-BD67-A92D5F20D146}"/>
 </file>
--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_005.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_005.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="122">
   <si>
     <t>Sezione</t>
   </si>
@@ -436,7 +436,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G86"/>
+  <dimension ref="A1:G88"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2055,7 +2055,7 @@
         <v>106</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>8</v>
@@ -2064,7 +2064,7 @@
         <v>107</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>9</v>
@@ -2075,7 +2075,7 @@
         <v>106</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>8</v>
@@ -2084,7 +2084,7 @@
         <v>107</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>9</v>
@@ -2095,16 +2095,16 @@
         <v>106</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>107</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>9</v>
@@ -2115,16 +2115,16 @@
         <v>106</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>107</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>9</v>
@@ -2132,19 +2132,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>9</v>
@@ -2152,21 +2152,61 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="B87" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B88" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C86" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D86" s="2" t="s">
+      <c r="C88" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D88" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="E86" s="2" t="s">
+      <c r="E88" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="F86" s="2" t="s">
+      <c r="F88" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_005.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_005.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="122">
   <si>
     <t>Sezione</t>
   </si>
@@ -50,7 +50,7 @@
     <t>Formula</t>
   </si>
   <si>
-    <t>193</t>
+    <t>193.8</t>
   </si>
   <si>
     <t>194</t>
@@ -290,76 +290,76 @@
     <t>luogoFiliazione</t>
   </si>
   <si>
+    <t>Autorità mittente</t>
+  </si>
+  <si>
+    <t>Data formazione documento</t>
+  </si>
+  <si>
+    <t>evento.trascrizioneNascita.atto.enteEstero</t>
+  </si>
+  <si>
+    <t>dataTrascrizione</t>
+  </si>
+  <si>
+    <t>Estremi documento</t>
+  </si>
+  <si>
+    <t>estremiDocumento</t>
+  </si>
+  <si>
+    <t>Nome ente</t>
+  </si>
+  <si>
+    <t>nomeEnte</t>
+  </si>
+  <si>
+    <t>Stato ente</t>
+  </si>
+  <si>
+    <t>nazioneEnte</t>
+  </si>
+  <si>
+    <t>Stato ente - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeNazioneEnte</t>
+  </si>
+  <si>
+    <t>Provincia ente</t>
+  </si>
+  <si>
+    <t>idProvinciaEnte</t>
+  </si>
+  <si>
+    <t>Provincia ente - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaEnte</t>
+  </si>
+  <si>
+    <t>Comune ente</t>
+  </si>
+  <si>
+    <t>idComuneEnte</t>
+  </si>
+  <si>
+    <t>Comune ente - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneEnte</t>
+  </si>
+  <si>
     <t>Atto da trascrivere</t>
   </si>
   <si>
-    <t>Nome ente</t>
-  </si>
-  <si>
     <t>evento.trascrizioneNascita.attoEstero.enteEstero</t>
   </si>
   <si>
-    <t>nomeEnte</t>
-  </si>
-  <si>
-    <t>Stato ente</t>
-  </si>
-  <si>
-    <t>nazioneEnte</t>
-  </si>
-  <si>
-    <t>Stato ente - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeNazioneEnte</t>
-  </si>
-  <si>
-    <t>Data formazione documento</t>
-  </si>
-  <si>
-    <t>dataTrascrizione</t>
-  </si>
-  <si>
     <t>Descrizione documento</t>
   </si>
   <si>
     <t>descrizione</t>
-  </si>
-  <si>
-    <t>Estremi documento</t>
-  </si>
-  <si>
-    <t>estremiDocumento</t>
-  </si>
-  <si>
-    <t>Autorità mittente</t>
-  </si>
-  <si>
-    <t>evento.trascrizioneNascita.autoritaMittente</t>
-  </si>
-  <si>
-    <t>Provincia ente</t>
-  </si>
-  <si>
-    <t>idProvinciaEnte</t>
-  </si>
-  <si>
-    <t>Provincia ente - Descrizione</t>
-  </si>
-  <si>
-    <t>siglaProvinciaEnte</t>
-  </si>
-  <si>
-    <t>Comune ente</t>
-  </si>
-  <si>
-    <t>idComuneEnte</t>
-  </si>
-  <si>
-    <t>Comune ente - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeComuneEnte</t>
   </si>
   <si>
     <t>Dati della trascrizione</t>
@@ -436,7 +436,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G88"/>
+  <dimension ref="A1:G90"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1998,7 +1998,7 @@
         <v>102</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>94</v>
@@ -2018,7 +2018,7 @@
         <v>104</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>94</v>
@@ -2032,19 +2032,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B80" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="C80" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D80" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>9</v>
@@ -2052,19 +2052,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>9</v>
@@ -2072,19 +2072,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>9</v>
@@ -2092,19 +2092,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>9</v>
@@ -2112,19 +2112,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>9</v>
@@ -2132,19 +2132,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>9</v>
@@ -2152,19 +2152,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>9</v>
@@ -2172,19 +2172,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>9</v>
@@ -2192,21 +2192,61 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="B89" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B90" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C88" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D88" s="2" t="s">
+      <c r="C90" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D90" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="E88" s="2" t="s">
+      <c r="E90" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="F88" s="2" t="s">
+      <c r="F90" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_005.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_005.xlsx
@@ -1738,7 +1738,7 @@
         <v>84</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>80</v>
@@ -1758,7 +1758,7 @@
         <v>86</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>80</v>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_005.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_005.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="126">
   <si>
     <t>Sezione</t>
   </si>
@@ -50,7 +50,7 @@
     <t>Formula</t>
   </si>
   <si>
-    <t>193.8</t>
+    <t>193</t>
   </si>
   <si>
     <t>194</t>
@@ -290,42 +290,54 @@
     <t>luogoFiliazione</t>
   </si>
   <si>
+    <t>Atto da trascrivere</t>
+  </si>
+  <si>
+    <t>Nome ente</t>
+  </si>
+  <si>
+    <t>evento.trascrizioneNascita.attoEstero.enteEstero</t>
+  </si>
+  <si>
+    <t>nomeEnte</t>
+  </si>
+  <si>
+    <t>Stato ente</t>
+  </si>
+  <si>
+    <t>nazioneEnte</t>
+  </si>
+  <si>
+    <t>Stato ente - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeNazioneEnte</t>
+  </si>
+  <si>
+    <t>Data formazione documento</t>
+  </si>
+  <si>
+    <t>dataTrascrizione</t>
+  </si>
+  <si>
+    <t>Descrizione documento</t>
+  </si>
+  <si>
+    <t>descrizione</t>
+  </si>
+  <si>
+    <t>Estremi documento</t>
+  </si>
+  <si>
+    <t>estremiDocumento</t>
+  </si>
+  <si>
     <t>Autorità mittente</t>
   </si>
   <si>
-    <t>Data formazione documento</t>
-  </si>
-  <si>
     <t>evento.trascrizioneNascita.atto.enteEstero</t>
   </si>
   <si>
-    <t>dataTrascrizione</t>
-  </si>
-  <si>
-    <t>Estremi documento</t>
-  </si>
-  <si>
-    <t>estremiDocumento</t>
-  </si>
-  <si>
-    <t>Nome ente</t>
-  </si>
-  <si>
-    <t>nomeEnte</t>
-  </si>
-  <si>
-    <t>Stato ente</t>
-  </si>
-  <si>
-    <t>nazioneEnte</t>
-  </si>
-  <si>
-    <t>Stato ente - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeNazioneEnte</t>
-  </si>
-  <si>
     <t>Provincia ente</t>
   </si>
   <si>
@@ -350,16 +362,16 @@
     <t>nomeComuneEnte</t>
   </si>
   <si>
-    <t>Atto da trascrivere</t>
-  </si>
-  <si>
-    <t>evento.trascrizioneNascita.attoEstero.enteEstero</t>
-  </si>
-  <si>
-    <t>Descrizione documento</t>
-  </si>
-  <si>
-    <t>descrizione</t>
+    <t>Anagrafica Consolato</t>
+  </si>
+  <si>
+    <t>idAnagraficaConsolato</t>
+  </si>
+  <si>
+    <t>Anagrafica Consolato - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeAnagraficaConsolato</t>
   </si>
   <si>
     <t>Dati della trascrizione</t>
@@ -446,7 +458,7 @@
     <col min="2" max="2" width="60.7265625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="45.05859375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="22.68359375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="24.66796875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -1998,7 +2010,7 @@
         <v>102</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>94</v>
@@ -2018,7 +2030,7 @@
         <v>104</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>94</v>
@@ -2032,19 +2044,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>9</v>
@@ -2052,19 +2064,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>9</v>
@@ -2072,19 +2084,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>9</v>
@@ -2092,19 +2104,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>9</v>
@@ -2112,19 +2124,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>9</v>
@@ -2132,19 +2144,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B85" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B85" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="C85" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D85" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E85" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>9</v>
@@ -2152,19 +2164,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>9</v>
@@ -2172,19 +2184,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>9</v>
@@ -2192,19 +2204,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>9</v>
@@ -2212,19 +2224,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>9</v>
@@ -2232,19 +2244,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>9</v>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_005.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_005.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="128">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Allegati</t>
   </si>
   <si>
@@ -81,6 +84,9 @@
   </si>
   <si>
     <t>numeroatto</t>
+  </si>
+  <si>
+    <t>obbligatoria</t>
   </si>
   <si>
     <t>Data formazione</t>
@@ -448,7 +454,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G90"/>
+  <dimension ref="A1:H90"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -460,6 +466,7 @@
     <col min="4" max="4" width="45.05859375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="24.66796875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="24.609375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -481,165 +488,192 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -661,1605 +695,1848 @@
       <c r="F10" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G10" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="E16" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="C58" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D58" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E58" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="F58" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D62" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="E62" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B75" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D75" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C75" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="E75" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B90" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C90" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="E90" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_005.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_005.xlsx
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Allegati</t>
@@ -466,7 +466,7 @@
     <col min="4" max="4" width="45.05859375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="24.66796875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="24.609375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="28.44921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_005.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_005.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="129">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,46 +32,49 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Nota di trasmissione da parte dell’autorità consolare o diplomatica</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Atto estero di nascita originale o copia autentica</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>193</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Allegati</t>
-  </si>
-  <si>
-    <t>Nota di trasmissione da parte dell’autorità consolare o diplomatica</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Atto estero di nascita originale o copia autentica</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>193</t>
-  </si>
-  <si>
-    <t>194</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>195</t>
-  </si>
-  <si>
-    <t>196</t>
-  </si>
-  <si>
-    <t>198</t>
-  </si>
-  <si>
-    <t>199</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -696,1847 +699,1847 @@
         <v>5</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B83" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D83" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C83" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="E83" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_005.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_005.xlsx
@@ -53,7 +53,7 @@
     <t>Formula</t>
   </si>
   <si>
-    <t>193</t>
+    <t>193.3</t>
   </si>
   <si>
     <t>194</t>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_005.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_005.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="116">
   <si>
     <t>Sezione</t>
   </si>
@@ -258,45 +258,6 @@
   </si>
   <si>
     <t>evento.intestatari[0]</t>
-  </si>
-  <si>
-    <t>Assegnazione cognome</t>
-  </si>
-  <si>
-    <t>evento.datiDiNascita</t>
-  </si>
-  <si>
-    <t>sceltaCognome</t>
-  </si>
-  <si>
-    <t>Precisazione</t>
-  </si>
-  <si>
-    <t>precisazioneCognome</t>
-  </si>
-  <si>
-    <t>Ora nascita</t>
-  </si>
-  <si>
-    <t>oraNascita</t>
-  </si>
-  <si>
-    <t>Minuto nascita</t>
-  </si>
-  <si>
-    <t>minutoNascita</t>
-  </si>
-  <si>
-    <t>Stato di nascita - descrizione</t>
-  </si>
-  <si>
-    <t>Provincia di nascita - descrizione</t>
-  </si>
-  <si>
-    <t>Luogo nascita</t>
-  </si>
-  <si>
-    <t>luogoFiliazione</t>
   </si>
   <si>
     <t>Atto da trascrivere</t>
@@ -457,7 +418,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H90"/>
+  <dimension ref="A1:H97"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1814,7 +1775,7 @@
         <v>33</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>81</v>
@@ -1857,16 +1818,16 @@
         <v>80</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1880,16 +1841,16 @@
         <v>80</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1903,7 +1864,7 @@
         <v>80</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
@@ -1912,7 +1873,7 @@
         <v>81</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1926,7 +1887,7 @@
         <v>80</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
@@ -1935,7 +1896,7 @@
         <v>81</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1949,16 +1910,16 @@
         <v>80</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1972,16 +1933,16 @@
         <v>80</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -1995,16 +1956,16 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>81</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2018,16 +1979,16 @@
         <v>80</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>81</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2041,7 +2002,7 @@
         <v>80</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>15</v>
@@ -2050,7 +2011,7 @@
         <v>81</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2064,7 +2025,7 @@
         <v>80</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>15</v>
@@ -2073,7 +2034,7 @@
         <v>81</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2087,7 +2048,7 @@
         <v>80</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>15</v>
@@ -2096,7 +2057,7 @@
         <v>81</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2110,7 +2071,7 @@
         <v>80</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>15</v>
@@ -2119,7 +2080,7 @@
         <v>81</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2133,16 +2094,16 @@
         <v>80</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2153,19 +2114,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2176,19 +2137,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2199,19 +2160,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2222,19 +2183,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2245,19 +2206,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2268,19 +2229,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2291,19 +2252,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2314,19 +2275,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2337,19 +2298,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2360,19 +2321,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2383,19 +2344,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2406,19 +2367,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2429,19 +2390,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2452,19 +2413,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2475,19 +2436,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>121</v>
+        <v>86</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>122</v>
+        <v>87</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2498,19 +2459,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>124</v>
+        <v>88</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>126</v>
+        <v>89</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2521,24 +2482,185 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>127</v>
+        <v>98</v>
       </c>
       <c r="C90" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D90" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G90" s="2" t="s">
+      <c r="D96" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
         <v>25</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_005.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_005.xlsx
@@ -2258,7 +2258,7 @@
         <v>76</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>81</v>
@@ -2396,7 +2396,7 @@
         <v>94</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>84</v>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_005.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_005.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="119">
   <si>
     <t>Sezione</t>
   </si>
@@ -176,6 +176,12 @@
     <t>nomeComuneNascita</t>
   </si>
   <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
+  </si>
+  <si>
     <t>Nazionalita</t>
   </si>
   <si>
@@ -282,6 +288,9 @@
   </si>
   <si>
     <t>nomeNazioneEnte</t>
+  </si>
+  <si>
+    <t>comuneEstero</t>
   </si>
   <si>
     <t>Data formazione documento</t>
@@ -418,7 +427,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H97"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1263,19 +1272,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="C37" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D37" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -1286,19 +1295,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1309,19 +1318,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1332,19 +1341,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1355,19 +1364,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1378,19 +1387,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1401,19 +1410,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1424,19 +1433,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1447,19 +1456,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1470,19 +1479,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1493,19 +1502,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1516,19 +1525,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1539,19 +1548,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1562,19 +1571,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1585,19 +1594,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1608,19 +1617,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1631,19 +1640,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1654,19 +1663,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1677,19 +1686,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1700,19 +1709,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1723,19 +1732,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1746,19 +1755,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1772,16 +1781,16 @@
         <v>80</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>81</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1795,16 +1804,16 @@
         <v>80</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>81</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1815,19 +1824,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1838,19 +1847,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1861,19 +1870,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1884,19 +1893,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1907,19 +1916,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1930,19 +1939,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -1953,19 +1962,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -1976,19 +1985,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -1999,19 +2008,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2022,19 +2031,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2045,19 +2054,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2068,19 +2077,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2091,19 +2100,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2114,19 +2123,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2137,19 +2146,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2160,19 +2169,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2183,19 +2192,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2206,19 +2215,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2229,19 +2238,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2252,19 +2261,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2278,16 +2287,16 @@
         <v>82</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2301,16 +2310,16 @@
         <v>82</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2324,16 +2333,16 @@
         <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2344,19 +2353,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2367,19 +2376,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2390,19 +2399,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2413,19 +2422,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2436,19 +2445,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2459,19 +2468,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E89" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2482,19 +2491,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="B90" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E90" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2505,19 +2514,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B91" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C91" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="E91" s="2" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2528,19 +2537,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2551,19 +2560,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2574,19 +2583,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2597,19 +2606,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2620,19 +2629,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2643,24 +2652,116 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E98" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="F98" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B100" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C97" s="2" t="s">
+      <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D97" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E97" s="2" t="s">
+      <c r="D100" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="F97" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G97" s="2" t="s">
+      <c r="E100" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
         <v>25</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_005.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_005.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="120">
   <si>
     <t>Sezione</t>
   </si>
@@ -264,6 +264,9 @@
   </si>
   <si>
     <t>evento.intestatari[0]</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Atto da trascrivere</t>
@@ -2333,7 +2336,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
@@ -2353,19 +2356,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2376,19 +2379,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2399,19 +2402,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2422,7 +2425,7 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>54</v>
@@ -2431,10 +2434,10 @@
         <v>15</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2445,19 +2448,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2468,19 +2471,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2491,19 +2494,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2514,19 +2517,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2537,19 +2540,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2560,19 +2563,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2583,19 +2586,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B94" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D94" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C94" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="E94" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2606,19 +2609,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2629,19 +2632,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2652,19 +2655,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2675,19 +2678,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2698,19 +2701,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2721,19 +2724,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2744,19 +2747,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_005.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_005.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="119">
   <si>
     <t>Sezione</t>
   </si>
@@ -264,9 +264,6 @@
   </si>
   <si>
     <t>evento.intestatari[0]</t>
-  </si>
-  <si>
-    <t>Firmatario</t>
   </si>
   <si>
     <t>Atto da trascrivere</t>
@@ -2336,7 +2333,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
@@ -2356,19 +2353,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B84" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E84" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2379,19 +2376,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2402,19 +2399,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2425,7 +2422,7 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>54</v>
@@ -2434,10 +2431,10 @@
         <v>15</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2448,19 +2445,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2471,19 +2468,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B89" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E89" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2494,19 +2491,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B90" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E90" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2517,19 +2514,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2540,19 +2537,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2563,19 +2560,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2586,19 +2583,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D94" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="E94" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2609,19 +2606,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D95" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B95" s="2" t="s">
+      <c r="E95" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>105</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2632,19 +2629,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D96" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B96" s="2" t="s">
+      <c r="E96" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2655,19 +2652,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D97" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="E97" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2678,19 +2675,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D98" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B98" s="2" t="s">
+      <c r="E98" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2701,19 +2698,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D99" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B99" s="2" t="s">
+      <c r="E99" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2724,19 +2721,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B100" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E100" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2747,19 +2744,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_005.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_005.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="130">
   <si>
     <t>Sezione</t>
   </si>
@@ -252,6 +252,36 @@
   </si>
   <si>
     <t>flagFirmatario</t>
+  </si>
+  <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
+  </si>
+  <si>
+    <t>Trasmissione residenza estera</t>
+  </si>
+  <si>
+    <t>flagTrasmissioneResidenzaEstera</t>
   </si>
   <si>
     <t>Padre</t>
@@ -430,7 +460,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:H115"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -440,7 +470,7 @@
     <col min="2" max="2" width="60.7265625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="45.05859375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="24.66796875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="30.5234375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="28.44921875" customWidth="true" bestFit="true"/>
   </cols>
@@ -1298,19 +1328,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="C38" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D38" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1321,19 +1351,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1344,19 +1374,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1367,19 +1397,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1390,19 +1420,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1413,19 +1443,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1436,19 +1466,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1459,19 +1489,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1482,19 +1512,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1505,19 +1535,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1528,19 +1558,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1551,19 +1581,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1574,19 +1604,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1597,19 +1627,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1620,19 +1650,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1643,19 +1673,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1666,19 +1696,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1689,19 +1719,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1712,19 +1742,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1735,19 +1765,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1758,19 +1788,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1781,19 +1811,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1804,19 +1834,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1827,19 +1857,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1850,19 +1880,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1873,19 +1903,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1896,19 +1926,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1919,19 +1949,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1942,19 +1972,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -1965,19 +1995,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="C67" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D67" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -1988,19 +2018,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2011,19 +2041,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2034,19 +2064,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2057,19 +2087,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2080,19 +2110,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2103,19 +2133,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2126,19 +2156,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2149,19 +2179,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2172,19 +2202,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2195,19 +2225,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2218,19 +2248,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2241,19 +2271,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2264,19 +2294,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2287,19 +2317,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2310,19 +2340,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2333,19 +2363,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2356,19 +2386,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2379,19 +2409,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2402,19 +2432,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2425,19 +2455,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2448,19 +2478,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2471,19 +2501,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2494,19 +2524,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2517,19 +2547,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2540,19 +2570,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2563,19 +2593,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2586,19 +2616,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2609,19 +2639,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2632,19 +2662,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2655,19 +2685,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2678,19 +2708,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2701,19 +2731,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E99" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2724,19 +2754,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2747,24 +2777,346 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B109" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B101" s="2" t="s">
+      <c r="C109" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B111" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C101" s="2" t="s">
+      <c r="C111" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D101" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G101" s="2" t="s">
+      <c r="D114" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
         <v>25</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_005.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_005.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="132">
   <si>
     <t>Sezione</t>
   </si>
@@ -128,6 +128,12 @@
     <t>nome</t>
   </si>
   <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
     <t>Sesso</t>
   </si>
   <si>
@@ -182,13 +188,13 @@
     <t>localitaEsteraNascita</t>
   </si>
   <si>
-    <t>Nazionalita</t>
+    <t>Nazionalità</t>
   </si>
   <si>
     <t>idNazionalita</t>
   </si>
   <si>
-    <t>Nazionalita - Descrizione</t>
+    <t>Nazionalità - Descrizione</t>
   </si>
   <si>
     <t>nazionalita</t>
@@ -460,7 +466,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H115"/>
+  <dimension ref="A1:H118"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1443,19 +1449,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="C43" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D43" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1466,19 +1472,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1489,19 +1495,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1512,19 +1518,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1535,19 +1541,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1558,19 +1564,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1581,19 +1587,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1604,19 +1610,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1627,19 +1633,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1650,19 +1656,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1673,19 +1679,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1696,19 +1702,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1719,19 +1725,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1742,19 +1748,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1765,19 +1771,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1788,19 +1794,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1811,19 +1817,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1834,19 +1840,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1857,19 +1863,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1880,19 +1886,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1903,19 +1909,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1926,19 +1932,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1949,19 +1955,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1972,19 +1978,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -1995,19 +2001,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2018,19 +2024,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2041,19 +2047,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2064,19 +2070,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2090,16 +2096,16 @@
         <v>92</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>93</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2113,16 +2119,16 @@
         <v>92</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>93</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2133,19 +2139,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2156,19 +2162,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2179,19 +2185,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2202,19 +2208,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2225,19 +2231,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2248,19 +2254,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2271,19 +2277,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2294,19 +2300,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2317,19 +2323,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2340,19 +2346,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2363,19 +2369,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2386,19 +2392,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2409,19 +2415,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2432,19 +2438,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2455,19 +2461,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2478,19 +2484,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2501,19 +2507,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2524,19 +2530,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2547,19 +2553,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2570,19 +2576,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2593,19 +2599,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2616,19 +2622,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2639,19 +2645,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2662,19 +2668,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2685,19 +2691,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2708,19 +2714,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D98" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B98" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="E98" s="2" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2731,19 +2737,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D99" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B99" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="E99" s="2" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2754,19 +2760,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D100" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B100" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="E100" s="2" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2777,19 +2783,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2800,19 +2806,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2823,19 +2829,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2846,19 +2852,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>108</v>
+        <v>56</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2869,19 +2875,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2892,19 +2898,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="B106" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D106" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C106" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="E106" s="2" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2915,19 +2921,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B107" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B107" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D107" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E107" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -2938,19 +2944,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -2961,19 +2967,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -2984,19 +2990,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3007,19 +3013,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3030,19 +3036,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3053,19 +3059,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3076,19 +3082,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3099,24 +3105,93 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B116" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B115" s="2" t="s">
+      <c r="C116" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D117" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C115" s="2" t="s">
+      <c r="E117" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D115" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F115" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G115" s="2" t="s">
+      <c r="D118" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
         <v>25</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_005.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_005.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="134">
   <si>
     <t>Sezione</t>
   </si>
@@ -198,6 +198,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -466,7 +472,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H118"/>
+  <dimension ref="A1:H121"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1472,19 +1478,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="C44" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D44" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1495,19 +1501,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1518,19 +1524,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1541,19 +1547,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1564,19 +1570,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1587,19 +1593,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1610,19 +1616,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1633,19 +1639,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1656,19 +1662,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1679,19 +1685,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1702,19 +1708,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1725,19 +1731,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1748,19 +1754,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1771,19 +1777,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1794,19 +1800,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1817,19 +1823,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1840,19 +1846,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1863,19 +1869,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1886,19 +1892,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1909,19 +1915,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1932,19 +1938,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1955,19 +1961,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1978,19 +1984,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2001,19 +2007,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2024,19 +2030,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2047,19 +2053,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2070,19 +2076,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2093,19 +2099,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2116,19 +2122,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2142,16 +2148,16 @@
         <v>94</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>95</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>35</v>
+        <v>91</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2165,16 +2171,16 @@
         <v>94</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>95</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2185,19 +2191,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2208,19 +2214,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2231,19 +2237,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2254,19 +2260,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2277,19 +2283,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2300,19 +2306,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2323,19 +2329,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2346,19 +2352,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2369,19 +2375,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2392,19 +2398,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2415,19 +2421,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2438,19 +2444,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2461,19 +2467,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2484,19 +2490,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2507,19 +2513,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2530,19 +2536,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2553,19 +2559,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2576,19 +2582,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2599,19 +2605,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2622,19 +2628,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2645,19 +2651,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2668,19 +2674,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2691,19 +2697,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2714,19 +2720,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2737,19 +2743,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2760,19 +2766,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2783,19 +2789,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D101" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B101" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="E101" s="2" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2806,19 +2812,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D102" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B102" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="E102" s="2" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2829,19 +2835,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D103" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B103" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="E103" s="2" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2852,19 +2858,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>56</v>
+        <v>100</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2875,19 +2881,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2898,19 +2904,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2921,19 +2927,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>110</v>
+        <v>56</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -2944,19 +2950,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -2967,19 +2973,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="B109" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D109" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C109" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="E109" s="2" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -2990,19 +2996,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B110" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B110" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D110" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E110" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3013,19 +3019,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3036,19 +3042,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3059,19 +3065,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3082,19 +3088,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3105,19 +3111,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3128,19 +3134,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3151,19 +3157,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3174,24 +3180,93 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B119" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B118" s="2" t="s">
+      <c r="C119" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C118" s="2" t="s">
+      <c r="E120" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D118" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="F118" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G118" s="2" t="s">
+      <c r="D121" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
         <v>25</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_005.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_005.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="131">
   <si>
     <t>Sezione</t>
   </si>
@@ -56,66 +56,51 @@
     <t>193.3</t>
   </si>
   <si>
-    <t>194</t>
+    <t>Si puo' ignorare la sezione per</t>
+  </si>
+  <si>
+    <t>Formazione atto</t>
+  </si>
+  <si>
+    <t>Numero comunale</t>
+  </si>
+  <si>
+    <t>evento</t>
+  </si>
+  <si>
+    <t>numeroatto</t>
+  </si>
+  <si>
+    <t>obbligatoria</t>
+  </si>
+  <si>
+    <t>Data formazione</t>
+  </si>
+  <si>
+    <t>dataformazione</t>
+  </si>
+  <si>
+    <t>Ora formazione</t>
+  </si>
+  <si>
+    <t>ora</t>
+  </si>
+  <si>
+    <t>Minuti formazione</t>
+  </si>
+  <si>
+    <t>minuto</t>
+  </si>
+  <si>
+    <t>Madre</t>
+  </si>
+  <si>
+    <t>Cognome</t>
   </si>
   <si>
     <t>NO</t>
   </si>
   <si>
-    <t>195</t>
-  </si>
-  <si>
-    <t>196</t>
-  </si>
-  <si>
-    <t>198</t>
-  </si>
-  <si>
-    <t>199</t>
-  </si>
-  <si>
-    <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Formazione atto</t>
-  </si>
-  <si>
-    <t>Numero comunale</t>
-  </si>
-  <si>
-    <t>evento</t>
-  </si>
-  <si>
-    <t>numeroatto</t>
-  </si>
-  <si>
-    <t>obbligatoria</t>
-  </si>
-  <si>
-    <t>Data formazione</t>
-  </si>
-  <si>
-    <t>dataformazione</t>
-  </si>
-  <si>
-    <t>Ora formazione</t>
-  </si>
-  <si>
-    <t>ora</t>
-  </si>
-  <si>
-    <t>Minuti formazione</t>
-  </si>
-  <si>
-    <t>minuto</t>
-  </si>
-  <si>
-    <t>Madre</t>
-  </si>
-  <si>
-    <t>Cognome</t>
-  </si>
-  <si>
     <t>evento.madre</t>
   </si>
   <si>
@@ -198,6 +183,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Comprensione</t>
+  </si>
+  <si>
+    <t>tipoImpedimento</t>
   </si>
   <si>
     <t>Residenza non nota</t>
@@ -472,7 +463,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H121"/>
+  <dimension ref="A1:H119"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -580,2234 +571,2234 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="E7" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>20</v>
+      <c r="A10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>86</v>
+        <v>27</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>34</v>
+        <v>92</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>90</v>
+        <v>33</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D43" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E43" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="E44" s="2" t="s">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="E72" s="2" t="s">
-        <v>89</v>
+        <v>30</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="E73" s="2" t="s">
-        <v>91</v>
+        <v>32</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D74" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B74" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="E74" s="2" t="s">
-        <v>93</v>
+        <v>34</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="102">
@@ -2815,22 +2806,22 @@
         <v>96</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="103">
@@ -2838,59 +2829,59 @@
         <v>96</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>103</v>
+        <v>51</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>104</v>
@@ -2899,12 +2890,12 @@
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>105</v>
@@ -2913,7 +2904,7 @@
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>106</v>
@@ -2922,352 +2913,306 @@
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>56</v>
+        <v>107</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E109" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B109" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="B110" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C110" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D110" s="2" t="s">
+      <c r="E110" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E110" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E112" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B112" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="F120" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G120" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G121" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_005.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_005.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="132">
   <si>
     <t>Sezione</t>
   </si>
@@ -50,6 +50,12 @@
     <t>Atto estero di nascita originale o copia autentica</t>
   </si>
   <si>
+    <t>Sentenza di riconoscimento giudiziale della cittadinanza italiana</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
     <t>Formula</t>
   </si>
   <si>
@@ -96,9 +102,6 @@
   </si>
   <si>
     <t>Cognome</t>
-  </si>
-  <si>
-    <t>NO</t>
   </si>
   <si>
     <t>evento.madre</t>
@@ -463,7 +466,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H119"/>
+  <dimension ref="A1:H120"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -549,99 +552,99 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="D5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="G6" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>22</v>
@@ -650,7 +653,7 @@
         <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>23</v>
@@ -659,12 +662,12 @@
         <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>24</v>
@@ -673,7 +676,7 @@
         <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>25</v>
@@ -682,2206 +685,2206 @@
         <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="F10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="F11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B59" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C67" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B70" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C70" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D72" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="E72" s="2" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B74" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B75" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C75" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B79" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C79" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B80" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C80" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B81" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C81" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B82" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E82" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C82" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B83" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E83" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C83" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B84" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E84" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C84" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B85" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E85" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C85" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B86" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E86" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C86" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B87" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E87" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C87" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B88" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E88" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C88" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B89" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E89" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C89" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B90" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E90" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C90" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B91" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E91" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C91" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B92" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E92" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C92" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B93" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E93" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C93" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B94" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E94" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C94" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B95" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E95" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C95" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B96" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E96" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C96" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B97" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D97" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C97" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="E97" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B98" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E98" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C98" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B99" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E99" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C99" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B100" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E100" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C100" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B101" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E101" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C101" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>51</v>
+        <v>103</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>104</v>
@@ -2890,329 +2893,352 @@
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B106" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E106" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C106" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B107" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E107" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C107" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B108" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E108" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C108" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E109" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B109" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B112" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C112" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="E112" s="2" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B113" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E113" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C113" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B114" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E114" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C114" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B115" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E115" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C115" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B116" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E116" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C116" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B117" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E117" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C117" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E118" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B118" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E119" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B120" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="F119" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G119" s="2" t="s">
-        <v>19</v>
+      <c r="C120" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_005.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_005.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="134">
   <si>
     <t>Sezione</t>
   </si>
@@ -303,6 +303,12 @@
   </si>
   <si>
     <t>Firmatario</t>
+  </si>
+  <si>
+    <t>Residenza al momento dell'evento originario</t>
+  </si>
+  <si>
+    <t>residenzaOriginaria</t>
   </si>
   <si>
     <t>Atto da trascrivere</t>
@@ -466,7 +472,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H120"/>
+  <dimension ref="A1:H121"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2829,19 +2835,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B103" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B103" s="2" t="s">
+      <c r="C103" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E103" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2852,16 +2858,16 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>102</v>
@@ -2875,7 +2881,7 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>103</v>
@@ -2884,7 +2890,7 @@
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>104</v>
@@ -2898,19 +2904,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>52</v>
+        <v>105</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2921,16 +2927,16 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>106</v>
+        <v>52</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>107</v>
@@ -2944,16 +2950,16 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>108</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>109</v>
@@ -2967,7 +2973,7 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>110</v>
@@ -2976,7 +2982,7 @@
         <v>13</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>111</v>
@@ -2990,19 +2996,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B110" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B110" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D110" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E110" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3013,16 +3019,16 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>102</v>
@@ -3036,7 +3042,7 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>103</v>
@@ -3045,7 +3051,7 @@
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>104</v>
@@ -3059,19 +3065,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3082,7 +3088,7 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>116</v>
@@ -3091,7 +3097,7 @@
         <v>13</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>117</v>
@@ -3105,7 +3111,7 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>118</v>
@@ -3114,7 +3120,7 @@
         <v>13</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>119</v>
@@ -3128,7 +3134,7 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>120</v>
@@ -3137,7 +3143,7 @@
         <v>13</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>121</v>
@@ -3151,7 +3157,7 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>122</v>
@@ -3160,7 +3166,7 @@
         <v>13</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>123</v>
@@ -3174,7 +3180,7 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>124</v>
@@ -3183,7 +3189,7 @@
         <v>13</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>125</v>
@@ -3197,19 +3203,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B119" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B119" s="2" t="s">
+      <c r="C119" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E119" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3220,16 +3226,16 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>131</v>
@@ -3238,6 +3244,29 @@
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
         <v>21</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_005.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_005.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="132">
   <si>
     <t>Sezione</t>
   </si>
@@ -303,12 +303,6 @@
   </si>
   <si>
     <t>Firmatario</t>
-  </si>
-  <si>
-    <t>Residenza al momento dell'evento originario</t>
-  </si>
-  <si>
-    <t>residenzaOriginaria</t>
   </si>
   <si>
     <t>Atto da trascrivere</t>
@@ -472,7 +466,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H121"/>
+  <dimension ref="A1:H120"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2835,19 +2829,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2858,16 +2852,16 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>102</v>
@@ -2881,7 +2875,7 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>103</v>
@@ -2890,7 +2884,7 @@
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>104</v>
@@ -2904,19 +2898,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D106" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="E106" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2927,16 +2921,16 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>107</v>
@@ -2950,16 +2944,16 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>108</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>109</v>
@@ -2973,7 +2967,7 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>110</v>
@@ -2982,7 +2976,7 @@
         <v>13</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>111</v>
@@ -2996,19 +2990,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3019,16 +3013,16 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>102</v>
@@ -3042,7 +3036,7 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>103</v>
@@ -3051,7 +3045,7 @@
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>104</v>
@@ -3065,19 +3059,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B113" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B113" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D113" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E113" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3088,7 +3082,7 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>116</v>
@@ -3097,7 +3091,7 @@
         <v>13</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>117</v>
@@ -3111,7 +3105,7 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>118</v>
@@ -3120,7 +3114,7 @@
         <v>13</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>119</v>
@@ -3134,7 +3128,7 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>120</v>
@@ -3143,7 +3137,7 @@
         <v>13</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>121</v>
@@ -3157,7 +3151,7 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>122</v>
@@ -3166,7 +3160,7 @@
         <v>13</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>123</v>
@@ -3180,7 +3174,7 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>124</v>
@@ -3189,7 +3183,7 @@
         <v>13</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>125</v>
@@ -3203,19 +3197,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3226,16 +3220,16 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>131</v>
@@ -3244,29 +3238,6 @@
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G121" s="2" t="s">
         <v>21</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_005.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_005.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="138">
   <si>
     <t>Sezione</t>
   </si>
@@ -126,6 +126,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -472,7 +484,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H121"/>
+  <dimension ref="A1:H127"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1432,19 +1444,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="C42" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D42" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1455,19 +1467,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>92</v>
+        <v>28</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>33</v>
+        <v>95</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1478,19 +1490,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1501,19 +1513,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1524,19 +1536,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1547,19 +1559,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1570,19 +1582,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1593,19 +1605,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1616,19 +1628,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1639,19 +1651,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1662,19 +1674,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1685,19 +1697,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1708,19 +1720,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1731,19 +1743,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1754,19 +1766,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1777,19 +1789,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1800,19 +1812,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1823,19 +1835,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1846,19 +1858,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1869,19 +1881,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1892,19 +1904,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1915,19 +1927,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1938,19 +1950,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1961,19 +1973,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1984,19 +1996,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2007,19 +2019,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2030,19 +2042,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2053,19 +2065,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2076,19 +2088,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2099,19 +2111,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2122,19 +2134,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2145,19 +2157,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2168,19 +2180,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>33</v>
+        <v>91</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2191,19 +2203,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>34</v>
+        <v>92</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2214,19 +2226,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B76" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D76" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2237,19 +2249,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2260,19 +2272,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2283,19 +2295,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2306,19 +2318,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2329,19 +2341,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2352,19 +2364,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2375,19 +2387,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2398,19 +2410,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2421,19 +2433,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2444,19 +2456,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2467,19 +2479,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2490,19 +2502,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2513,19 +2525,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2536,19 +2548,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2559,19 +2571,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2582,19 +2594,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2605,19 +2617,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2628,19 +2640,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2651,19 +2663,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2674,19 +2686,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2697,19 +2709,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2720,19 +2732,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2743,19 +2755,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2766,19 +2778,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2789,19 +2801,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2812,19 +2824,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2835,19 +2847,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2858,7 +2870,7 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>100</v>
@@ -2867,10 +2879,10 @@
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2881,19 +2893,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D105" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B105" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="E105" s="2" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2904,19 +2916,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D106" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B106" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="E106" s="2" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2927,19 +2939,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D107" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B107" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="E107" s="2" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -2950,19 +2962,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D108" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B108" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="E108" s="2" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -2973,19 +2985,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D109" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B109" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="E109" s="2" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -2996,19 +3008,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3019,19 +3031,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3042,19 +3054,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3065,19 +3077,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="B113" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D113" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C113" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="E113" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3088,19 +3100,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3111,19 +3123,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B115" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B115" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="C115" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D115" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E115" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3134,19 +3146,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3157,19 +3169,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3180,19 +3192,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3203,19 +3215,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3226,19 +3238,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3249,24 +3261,162 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B124" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B121" s="2" t="s">
+      <c r="C124" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C121" s="2" t="s">
+      <c r="B126" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D121" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G121" s="2" t="s">
+      <c r="D126" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G127" s="2" t="s">
         <v>21</v>
       </c>
     </row>
